--- a/results/final_results/ca_final.xlsx
+++ b/results/final_results/ca_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\WorkOnword\CitySearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\WorkOnword\CitySearch\results\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21851FB-A790-4E93-AED2-6B95CDCF8C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB949393-A194-40E4-AB50-6E09583EBC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-2388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18984,8 +18984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
+      <selection activeCell="D1312" sqref="D1312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
